--- a/Directorio_Afiliados_2025.xlsx
+++ b/Directorio_Afiliados_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6115d10aab34be5f/LinaM/Alsum/Comercial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\Analisis_Estrategico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{39522267-36FC-4806-BB78-5A6DD4A1ADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47EF8DD-59DA-4ECB-86BE-B89DE4156CC3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDACB36-C827-4939-96ED-9C75A9A6DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio 2025" sheetId="1" r:id="rId1"/>
@@ -76,20 +76,11 @@
     </comment>
     <comment ref="D59" authorId="1" shapeId="0" xr:uid="{426A0EC9-67E1-4963-A597-AF62A5928FA3}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
+        <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Intermediario de seguros
 Corredores de reaseguro</t>
-        </r>
       </text>
     </comment>
     <comment ref="AA91" authorId="2" shapeId="0" xr:uid="{610CDD1E-02A5-4E12-ADC2-64D61496BCBC}">
@@ -118,19 +109,10 @@
     </comment>
     <comment ref="A105" authorId="3" shapeId="0" xr:uid="{B0EE6CD7-C55F-4010-9AE0-0DBFFC500054}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentario encadenado]
+        <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Cambiar nombre</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -6679,16 +6661,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Poppins"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Poppins"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Poppins"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -8664,29 +8649,49 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.85546875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="108" customWidth="1"/>
-    <col min="2" max="3" width="16.85546875" style="19"/>
-    <col min="4" max="4" width="16.85546875" style="160"/>
-    <col min="5" max="8" width="16.85546875" style="19"/>
-    <col min="9" max="9" width="16.85546875" style="299"/>
-    <col min="10" max="11" width="0" style="299" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="0" style="300" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" style="289" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="16.85546875" style="19"/>
-    <col min="17" max="17" width="16.85546875" style="231"/>
-    <col min="18" max="19" width="16.85546875" style="19"/>
-    <col min="20" max="20" width="16.85546875" style="212"/>
-    <col min="21" max="22" width="16.85546875" style="19"/>
-    <col min="23" max="23" width="16.85546875" style="212"/>
-    <col min="24" max="16384" width="16.85546875" style="19"/>
+    <col min="1" max="1" width="73.88671875" style="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="171.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="160" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="59.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="299" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" style="299" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.44140625" style="299" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="300" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="300" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.88671875" style="289" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.88671875" style="231" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.88671875" style="212" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="68.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5546875" style="212" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="121.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="63.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="114.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32" style="19" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="16.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="54.6" customHeight="1">
+    <row r="1" spans="1:35" ht="43.2">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="36" customFormat="1" ht="29.1" customHeight="1">
+    <row r="2" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A2" s="121" t="s">
         <v>33</v>
       </c>
@@ -8877,7 +8882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="3" spans="1:35" s="36" customFormat="1">
       <c r="A3" s="121" t="s">
         <v>56</v>
       </c>
@@ -8972,7 +8977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="36" customFormat="1" ht="33.6" customHeight="1">
+    <row r="4" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A4" s="121" t="s">
         <v>75</v>
       </c>
@@ -9059,7 +9064,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="36" customFormat="1" ht="27.95" customHeight="1">
+    <row r="5" spans="1:35" s="36" customFormat="1">
       <c r="A5" s="75" t="s">
         <v>87</v>
       </c>
@@ -9154,7 +9159,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="1:35" s="36" customFormat="1">
       <c r="A6" s="121" t="s">
         <v>107</v>
       </c>
@@ -9239,7 +9244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="48" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="7" spans="1:35" s="48" customFormat="1">
       <c r="A7" s="77" t="s">
         <v>118</v>
       </c>
@@ -9328,7 +9333,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="8" spans="1:35" s="36" customFormat="1">
       <c r="A8" s="75" t="s">
         <v>129</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="9" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A9" s="75" t="s">
         <v>143</v>
       </c>
@@ -9496,7 +9501,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="10" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A10" s="121" t="s">
         <v>156</v>
       </c>
@@ -9593,7 +9598,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="11" spans="1:35" s="36" customFormat="1">
       <c r="A11" s="121" t="s">
         <v>174</v>
       </c>
@@ -9692,7 +9697,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="12" spans="1:35" s="36" customFormat="1">
       <c r="A12" s="121" t="s">
         <v>196</v>
       </c>
@@ -9781,7 +9786,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="13" spans="1:35" s="36" customFormat="1" ht="72">
       <c r="A13" s="121" t="s">
         <v>211</v>
       </c>
@@ -9866,7 +9871,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="14" spans="1:35" s="48" customFormat="1" ht="20.399999999999999">
       <c r="A14" s="121" t="s">
         <v>224</v>
       </c>
@@ -9943,7 +9948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="15" spans="1:35" s="48" customFormat="1">
       <c r="A15" s="121" t="s">
         <v>234</v>
       </c>
@@ -10032,7 +10037,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="16" spans="1:35" s="36" customFormat="1">
       <c r="A16" s="121" t="s">
         <v>247</v>
       </c>
@@ -10127,7 +10132,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="17" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A17" s="75" t="s">
         <v>262</v>
       </c>
@@ -10198,7 +10203,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="18" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A18" s="121" t="s">
         <v>272</v>
       </c>
@@ -10285,7 +10290,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="19" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A19" s="121" t="s">
         <v>285</v>
       </c>
@@ -10384,7 +10389,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="20" spans="1:35" s="36" customFormat="1">
       <c r="A20" s="121" t="s">
         <v>305</v>
       </c>
@@ -10471,7 +10476,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="21" spans="1:35" s="36" customFormat="1">
       <c r="A21" s="121" t="s">
         <v>319</v>
       </c>
@@ -10564,7 +10569,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="22" spans="1:35" s="36" customFormat="1">
       <c r="A22" s="121" t="s">
         <v>335</v>
       </c>
@@ -10649,7 +10654,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="23" spans="1:35" s="48" customFormat="1">
       <c r="A23" s="75" t="s">
         <v>348</v>
       </c>
@@ -10724,7 +10729,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="24" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A24" s="105" t="s">
         <v>360</v>
       </c>
@@ -10801,7 +10806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="25" spans="1:35" s="36" customFormat="1">
       <c r="A25" s="121" t="s">
         <v>373</v>
       </c>
@@ -10881,7 +10886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="26" spans="1:35" s="36" customFormat="1">
       <c r="A26" s="75" t="s">
         <v>387</v>
       </c>
@@ -10947,7 +10952,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="27" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A27" s="75" t="s">
         <v>397</v>
       </c>
@@ -11021,7 +11026,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="28" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A28" s="121" t="s">
         <v>409</v>
       </c>
@@ -11113,7 +11118,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="29" spans="1:35" s="36" customFormat="1">
       <c r="A29" s="75" t="s">
         <v>428</v>
       </c>
@@ -11177,7 +11182,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="30" spans="1:35" s="36" customFormat="1">
       <c r="A30" s="144" t="s">
         <v>435</v>
       </c>
@@ -11265,7 +11270,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="31" spans="1:35" s="36" customFormat="1">
       <c r="A31" s="75" t="s">
         <v>453</v>
       </c>
@@ -11344,7 +11349,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="32" spans="1:35" s="36" customFormat="1">
       <c r="A32" s="75" t="s">
         <v>464</v>
       </c>
@@ -11423,7 +11428,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="33" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A33" s="75" t="s">
         <v>475</v>
       </c>
@@ -11489,7 +11494,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="34" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A34" s="121" t="s">
         <v>484</v>
       </c>
@@ -11581,7 +11586,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="35" spans="1:35" s="36" customFormat="1">
       <c r="A35" s="144" t="s">
         <v>498</v>
       </c>
@@ -11671,7 +11676,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="36" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A36" s="121" t="s">
         <v>514</v>
       </c>
@@ -11761,7 +11766,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="37" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="37" spans="1:35" s="36" customFormat="1">
       <c r="A37" s="75" t="s">
         <v>534</v>
       </c>
@@ -11844,7 +11849,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="38" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A38" s="75" t="s">
         <v>549</v>
       </c>
@@ -11931,7 +11936,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="39" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A39" s="75" t="s">
         <v>563</v>
       </c>
@@ -12011,7 +12016,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="40" spans="1:35" s="36" customFormat="1">
       <c r="A40" s="121" t="s">
         <v>574</v>
       </c>
@@ -12087,7 +12092,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="41" spans="1:35" s="36" customFormat="1">
       <c r="A41" s="121" t="s">
         <v>583</v>
       </c>
@@ -12171,7 +12176,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="42" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A42" s="75" t="s">
         <v>597</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="43" spans="1:35" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A43" s="75" t="s">
         <v>608</v>
       </c>
@@ -12319,7 +12324,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="44" spans="1:35" s="48" customFormat="1">
       <c r="A44" s="75" t="s">
         <v>616</v>
       </c>
@@ -12396,7 +12401,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="45" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="45" spans="1:35" s="48" customFormat="1">
       <c r="A45" s="105" t="s">
         <v>627</v>
       </c>
@@ -12471,7 +12476,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="46" spans="1:35" s="48" customFormat="1">
       <c r="A46" s="105" t="s">
         <v>635</v>
       </c>
@@ -12543,7 +12548,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="47" spans="1:35" s="36" customFormat="1">
       <c r="A47" s="105" t="s">
         <v>647</v>
       </c>
@@ -12612,7 +12617,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="36" customFormat="1" ht="26.45" customHeight="1">
+    <row r="48" spans="1:35" s="36" customFormat="1">
       <c r="A48" s="75" t="s">
         <v>657</v>
       </c>
@@ -12683,7 +12688,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="49" spans="1:35" s="36" customFormat="1">
       <c r="A49" s="105" t="s">
         <v>665</v>
       </c>
@@ -12750,7 +12755,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="36" customFormat="1" ht="23.45" customHeight="1">
+    <row r="50" spans="1:35" s="36" customFormat="1" ht="43.2">
       <c r="A50" s="77" t="s">
         <v>675</v>
       </c>
@@ -12827,7 +12832,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="51" spans="1:35" s="48" customFormat="1">
       <c r="A51" s="77" t="s">
         <v>688</v>
       </c>
@@ -12896,7 +12901,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="52" spans="1:35" s="36" customFormat="1">
       <c r="A52" s="75" t="s">
         <v>697</v>
       </c>
@@ -12967,7 +12972,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="53" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="53" spans="1:35" s="48" customFormat="1">
       <c r="A53" s="109" t="s">
         <v>708</v>
       </c>
@@ -13039,7 +13044,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="54" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A54" s="75" t="s">
         <v>718</v>
       </c>
@@ -13113,7 +13118,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="55" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="55" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A55" s="121" t="s">
         <v>729</v>
       </c>
@@ -13202,7 +13207,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="56" spans="1:35" s="48" customFormat="1" ht="43.2">
       <c r="A56" s="121" t="s">
         <v>742</v>
       </c>
@@ -13287,7 +13292,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="57" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="57" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A57" s="121" t="s">
         <v>755</v>
       </c>
@@ -13377,7 +13382,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="58" spans="1:35" s="36" customFormat="1">
       <c r="A58" s="77" t="s">
         <v>769</v>
       </c>
@@ -13454,7 +13459,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="59" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="59" spans="1:35" s="36" customFormat="1" ht="43.2">
       <c r="A59" s="77" t="s">
         <v>778</v>
       </c>
@@ -13528,7 +13533,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="60" spans="1:35" s="36" customFormat="1">
       <c r="A60" s="121" t="s">
         <v>789</v>
       </c>
@@ -13606,7 +13611,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="61" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="61" spans="1:35" s="36" customFormat="1">
       <c r="A61" s="75" t="s">
         <v>799</v>
       </c>
@@ -13677,7 +13682,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="62" spans="1:35" s="36" customFormat="1" ht="28.8">
       <c r="A62" s="121" t="s">
         <v>810</v>
       </c>
@@ -13777,7 +13782,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="63" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="63" spans="1:35" s="36" customFormat="1">
       <c r="A63" s="75" t="s">
         <v>826</v>
       </c>
@@ -13852,7 +13857,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="64" spans="1:35" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="64" spans="1:35" s="36" customFormat="1">
       <c r="A64" s="121" t="s">
         <v>838</v>
       </c>
@@ -13944,7 +13949,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="65" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="65" spans="1:69" s="36" customFormat="1">
       <c r="A65" s="75" t="s">
         <v>856</v>
       </c>
@@ -14018,7 +14023,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="66" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="66" spans="1:69" s="48" customFormat="1">
       <c r="A66" s="75" t="s">
         <v>866</v>
       </c>
@@ -14089,7 +14094,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="67" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="67" spans="1:69" s="36" customFormat="1">
       <c r="A67" s="121" t="s">
         <v>877</v>
       </c>
@@ -14168,7 +14173,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="68" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="68" spans="1:69" s="36" customFormat="1">
       <c r="A68" s="75" t="s">
         <v>889</v>
       </c>
@@ -14240,7 +14245,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="69" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="69" spans="1:69" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A69" s="121" t="s">
         <v>898</v>
       </c>
@@ -14324,7 +14329,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="70" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A70" s="121" t="s">
         <v>911</v>
       </c>
@@ -14409,7 +14414,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="71" spans="1:69" s="36" customFormat="1">
       <c r="A71" s="161" t="s">
         <v>924</v>
       </c>
@@ -14483,7 +14488,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="72" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="72" spans="1:69" s="36" customFormat="1">
       <c r="A72" s="75" t="s">
         <v>936</v>
       </c>
@@ -14583,7 +14588,7 @@
       <c r="BP72" s="48"/>
       <c r="BQ72" s="48"/>
     </row>
-    <row r="73" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="73" spans="1:69" s="36" customFormat="1">
       <c r="A73" s="121" t="s">
         <v>945</v>
       </c>
@@ -14677,7 +14682,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="74" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="74" spans="1:69" s="36" customFormat="1">
       <c r="A74" s="75" t="s">
         <v>964</v>
       </c>
@@ -14752,7 +14757,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="75" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="75" spans="1:69" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A75" s="162" t="s">
         <v>975</v>
       </c>
@@ -14836,7 +14841,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="76" spans="1:69" s="36" customFormat="1">
       <c r="A76" s="121" t="s">
         <v>989</v>
       </c>
@@ -14922,7 +14927,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="77" spans="1:69" s="48" customFormat="1">
       <c r="A77" s="121" t="s">
         <v>998</v>
       </c>
@@ -15003,7 +15008,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="78" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="78" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A78" s="75" t="s">
         <v>1008</v>
       </c>
@@ -15068,7 +15073,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="79" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="79" spans="1:69" s="36" customFormat="1">
       <c r="A79" s="109" t="s">
         <v>1014</v>
       </c>
@@ -15142,7 +15147,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="80" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="80" spans="1:69" s="36" customFormat="1">
       <c r="A80" s="75" t="s">
         <v>1028</v>
       </c>
@@ -15224,7 +15229,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="81" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="81" spans="1:69" s="36" customFormat="1">
       <c r="A81" s="105" t="s">
         <v>1042</v>
       </c>
@@ -15301,7 +15306,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="82" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="82" spans="1:69" s="48" customFormat="1">
       <c r="A82" s="121" t="s">
         <v>1054</v>
       </c>
@@ -15430,7 +15435,7 @@
       <c r="BP82" s="36"/>
       <c r="BQ82" s="36"/>
     </row>
-    <row r="83" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="83" spans="1:69" s="48" customFormat="1">
       <c r="A83" s="121" t="s">
         <v>1071</v>
       </c>
@@ -15507,7 +15512,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="84" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="84" spans="1:69" s="48" customFormat="1">
       <c r="A84" s="75" t="s">
         <v>1083</v>
       </c>
@@ -15570,7 +15575,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="85" spans="1:69" s="36" customFormat="1">
       <c r="A85" s="75" t="s">
         <v>1090</v>
       </c>
@@ -15679,7 +15684,7 @@
       <c r="BP85" s="48"/>
       <c r="BQ85" s="48"/>
     </row>
-    <row r="86" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="86" spans="1:69" s="36" customFormat="1">
       <c r="A86" s="121" t="s">
         <v>1100</v>
       </c>
@@ -15776,7 +15781,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="87" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="87" spans="1:69" s="36" customFormat="1">
       <c r="A87" s="75" t="s">
         <v>1116</v>
       </c>
@@ -15854,7 +15859,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="88" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="88" spans="1:69" s="36" customFormat="1" ht="72">
       <c r="A88" s="75" t="s">
         <v>1128</v>
       </c>
@@ -15928,7 +15933,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="89" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="89" spans="1:69" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A89" s="170" t="s">
         <v>1137</v>
       </c>
@@ -16012,7 +16017,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="90" spans="1:69" s="36" customFormat="1">
       <c r="A90" s="121" t="s">
         <v>1147</v>
       </c>
@@ -16090,7 +16095,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="91" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="91" spans="1:69" s="36" customFormat="1">
       <c r="A91" s="121" t="s">
         <v>1159</v>
       </c>
@@ -16178,7 +16183,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="92" spans="1:69" s="36" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="92" spans="1:69" s="36" customFormat="1">
       <c r="A92" s="105" t="s">
         <v>1179</v>
       </c>
@@ -16256,7 +16261,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="93" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="93" spans="1:69" s="48" customFormat="1">
       <c r="A93" s="121" t="s">
         <v>1191</v>
       </c>
@@ -16339,7 +16344,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="94" spans="1:69" s="36" customFormat="1">
       <c r="A94" s="77" t="s">
         <v>1203</v>
       </c>
@@ -16439,7 +16444,7 @@
       <c r="BP94" s="48"/>
       <c r="BQ94" s="48"/>
     </row>
-    <row r="95" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="95" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A95" s="121" t="s">
         <v>1211</v>
       </c>
@@ -16532,7 +16537,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="96" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="96" spans="1:69" s="36" customFormat="1">
       <c r="A96" s="121" t="s">
         <v>1229</v>
       </c>
@@ -16621,7 +16626,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="97" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="97" spans="1:69" s="36" customFormat="1">
       <c r="A97" s="121" t="s">
         <v>1244</v>
       </c>
@@ -16707,7 +16712,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="98" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="98" spans="1:69" s="36" customFormat="1">
       <c r="A98" s="75" t="s">
         <v>1259</v>
       </c>
@@ -16776,7 +16781,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="99" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="99" spans="1:69" s="36" customFormat="1">
       <c r="A99" s="75" t="s">
         <v>1269</v>
       </c>
@@ -16851,7 +16856,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="100" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="100" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A100" s="75" t="s">
         <v>1278</v>
       </c>
@@ -16916,7 +16921,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="101" spans="1:69" s="36" customFormat="1">
       <c r="A101" s="144" t="s">
         <v>1286</v>
       </c>
@@ -17009,7 +17014,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="102" spans="1:69" s="36" customFormat="1" ht="28.5" customHeight="1">
+    <row r="102" spans="1:69" s="36" customFormat="1">
       <c r="A102" s="121" t="s">
         <v>1299</v>
       </c>
@@ -17087,7 +17092,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="103" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="103" spans="1:69" s="36" customFormat="1">
       <c r="A103" s="75" t="s">
         <v>1307</v>
       </c>
@@ -17149,7 +17154,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="104" spans="1:69" s="36" customFormat="1">
       <c r="A104" s="75" t="s">
         <v>1312</v>
       </c>
@@ -17227,7 +17232,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="105" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="105" spans="1:69" s="36" customFormat="1">
       <c r="A105" s="109" t="s">
         <v>1323</v>
       </c>
@@ -17302,7 +17307,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="106" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="106" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A106" s="75" t="s">
         <v>1337</v>
       </c>
@@ -17385,7 +17390,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="107" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="107" spans="1:69" s="48" customFormat="1">
       <c r="A107" s="75" t="s">
         <v>1349</v>
       </c>
@@ -17496,7 +17501,7 @@
       <c r="BP107" s="36"/>
       <c r="BQ107" s="36"/>
     </row>
-    <row r="108" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="108" spans="1:69" s="48" customFormat="1">
       <c r="A108" s="75" t="s">
         <v>1360</v>
       </c>
@@ -17575,7 +17580,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="109" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="109" spans="1:69" s="36" customFormat="1" ht="20.399999999999999">
       <c r="A109" s="121" t="s">
         <v>1371</v>
       </c>
@@ -17703,7 +17708,7 @@
       <c r="BP109" s="48"/>
       <c r="BQ109" s="48"/>
     </row>
-    <row r="110" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="110" spans="1:69" s="36" customFormat="1">
       <c r="A110" s="77" t="s">
         <v>1387</v>
       </c>
@@ -17818,7 +17823,7 @@
       <c r="BP110" s="48"/>
       <c r="BQ110" s="48"/>
     </row>
-    <row r="111" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="111" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A111" s="75" t="s">
         <v>1401</v>
       </c>
@@ -17893,7 +17898,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="112" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="112" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A112" s="121" t="s">
         <v>1412</v>
       </c>
@@ -17982,7 +17987,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="113" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="113" spans="1:69" s="36" customFormat="1">
       <c r="A113" s="75" t="s">
         <v>1428</v>
       </c>
@@ -18056,7 +18061,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="114" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="114" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A114" s="75" t="s">
         <v>1440</v>
       </c>
@@ -18129,7 +18134,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="115" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="115" spans="1:69" s="36" customFormat="1" ht="43.2">
       <c r="A115" s="75" t="s">
         <v>1450</v>
       </c>
@@ -18209,7 +18214,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="116" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="116" spans="1:69" s="36" customFormat="1">
       <c r="A116" s="75" t="s">
         <v>1464</v>
       </c>
@@ -18294,7 +18299,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="117" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="117" spans="1:69" s="48" customFormat="1">
       <c r="A117" s="75" t="s">
         <v>1476</v>
       </c>
@@ -18419,7 +18424,7 @@
       <c r="BP117" s="36"/>
       <c r="BQ117" s="36"/>
     </row>
-    <row r="118" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="118" spans="1:69" s="36" customFormat="1">
       <c r="A118" s="121" t="s">
         <v>1491</v>
       </c>
@@ -18509,7 +18514,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="119" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="119" spans="1:69" s="36" customFormat="1">
       <c r="A119" s="144" t="s">
         <v>1506</v>
       </c>
@@ -18596,7 +18601,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="120" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="120" spans="1:69" s="48" customFormat="1">
       <c r="A120" s="121" t="s">
         <v>1518</v>
       </c>
@@ -18687,7 +18692,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="121" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="121" spans="1:69" s="36" customFormat="1">
       <c r="A121" s="121" t="s">
         <v>1535</v>
       </c>
@@ -18803,7 +18808,7 @@
       <c r="BP121" s="48"/>
       <c r="BQ121" s="48"/>
     </row>
-    <row r="122" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="122" spans="1:69" s="36" customFormat="1">
       <c r="A122" s="121" t="s">
         <v>1549</v>
       </c>
@@ -18890,7 +18895,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="123" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="123" spans="1:69" s="48" customFormat="1">
       <c r="A123" s="75" t="s">
         <v>1562</v>
       </c>
@@ -18994,7 +18999,7 @@
       <c r="BP123" s="36"/>
       <c r="BQ123" s="36"/>
     </row>
-    <row r="124" spans="1:69" s="42" customFormat="1" ht="22.5" customHeight="1">
+    <row r="124" spans="1:69" s="42" customFormat="1" ht="86.4">
       <c r="A124" s="75" t="s">
         <v>1571</v>
       </c>
@@ -19091,7 +19096,7 @@
       <c r="BP124" s="48"/>
       <c r="BQ124" s="48"/>
     </row>
-    <row r="125" spans="1:69" s="42" customFormat="1" ht="22.5" customHeight="1">
+    <row r="125" spans="1:69" s="42" customFormat="1" ht="28.8">
       <c r="A125" s="75" t="s">
         <v>1580</v>
       </c>
@@ -19196,7 +19201,7 @@
       <c r="BP125" s="36"/>
       <c r="BQ125" s="36"/>
     </row>
-    <row r="126" spans="1:69" s="29" customFormat="1" ht="22.5" customHeight="1">
+    <row r="126" spans="1:69" s="29" customFormat="1">
       <c r="A126" s="121" t="s">
         <v>1590</v>
       </c>
@@ -19319,7 +19324,7 @@
       <c r="BP126" s="48"/>
       <c r="BQ126" s="48"/>
     </row>
-    <row r="127" spans="1:69" s="29" customFormat="1" ht="22.5" customHeight="1">
+    <row r="127" spans="1:69" s="29" customFormat="1" ht="28.8">
       <c r="A127" s="121" t="s">
         <v>1603</v>
       </c>
@@ -19447,7 +19452,7 @@
       <c r="BP127" s="48"/>
       <c r="BQ127" s="48"/>
     </row>
-    <row r="128" spans="1:69" s="29" customFormat="1" ht="22.5" customHeight="1">
+    <row r="128" spans="1:69" s="29" customFormat="1" ht="28.8">
       <c r="A128" s="75" t="s">
         <v>1623</v>
       </c>
@@ -19550,7 +19555,7 @@
       <c r="BP128" s="48"/>
       <c r="BQ128" s="48"/>
     </row>
-    <row r="129" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="129" spans="1:69" s="48" customFormat="1" ht="28.8">
       <c r="A129" s="121" t="s">
         <v>1632</v>
       </c>
@@ -19632,7 +19637,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="130" spans="1:69" s="48" customFormat="1" ht="29.25" customHeight="1">
+    <row r="130" spans="1:69" s="48" customFormat="1">
       <c r="A130" s="75" t="s">
         <v>1646</v>
       </c>
@@ -19740,7 +19745,7 @@
       <c r="BP130" s="36"/>
       <c r="BQ130" s="36"/>
     </row>
-    <row r="131" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="131" spans="1:69" s="36" customFormat="1">
       <c r="A131" s="75" t="s">
         <v>1657</v>
       </c>
@@ -19804,7 +19809,7 @@
       </c>
       <c r="AF131" s="48"/>
     </row>
-    <row r="132" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="132" spans="1:69" s="36" customFormat="1">
       <c r="A132" s="144" t="s">
         <v>1666</v>
       </c>
@@ -19921,7 +19926,7 @@
       <c r="BP132" s="48"/>
       <c r="BQ132" s="48"/>
     </row>
-    <row r="133" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="133" spans="1:69" s="36" customFormat="1">
       <c r="A133" s="77" t="s">
         <v>1674</v>
       </c>
@@ -20029,7 +20034,7 @@
       <c r="BP133" s="48"/>
       <c r="BQ133" s="48"/>
     </row>
-    <row r="134" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="134" spans="1:69" s="36" customFormat="1">
       <c r="A134" s="121" t="s">
         <v>1686</v>
       </c>
@@ -20116,7 +20121,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="135" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="135" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A135" s="75" t="s">
         <v>1701</v>
       </c>
@@ -20183,7 +20188,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="136" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="136" spans="1:69" s="36" customFormat="1">
       <c r="A136" s="75" t="s">
         <v>1711</v>
       </c>
@@ -20264,7 +20269,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="137" spans="1:69" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="137" spans="1:69" s="36" customFormat="1" ht="28.8">
       <c r="A137" s="75" t="s">
         <v>1723</v>
       </c>
@@ -20326,7 +20331,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="138" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="138" spans="1:69" s="48" customFormat="1">
       <c r="A138" s="173" t="s">
         <v>1730</v>
       </c>
@@ -20446,7 +20451,7 @@
       <c r="BP138" s="36"/>
       <c r="BQ138" s="36"/>
     </row>
-    <row r="139" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="139" spans="1:69" s="48" customFormat="1" ht="28.8">
       <c r="A139" s="121" t="s">
         <v>1741</v>
       </c>
@@ -20559,7 +20564,7 @@
       <c r="BP139" s="36"/>
       <c r="BQ139" s="36"/>
     </row>
-    <row r="140" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="140" spans="1:69" s="48" customFormat="1">
       <c r="A140" s="75" t="s">
         <v>1753</v>
       </c>
@@ -20668,7 +20673,7 @@
       <c r="BP140" s="36"/>
       <c r="BQ140" s="36"/>
     </row>
-    <row r="141" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="141" spans="1:69" s="48" customFormat="1">
       <c r="A141" s="77" t="s">
         <v>1764</v>
       </c>
@@ -20766,7 +20771,7 @@
       <c r="BP141" s="36"/>
       <c r="BQ141" s="36"/>
     </row>
-    <row r="142" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="142" spans="1:69" s="48" customFormat="1">
       <c r="A142" s="75" t="s">
         <v>1770</v>
       </c>
@@ -20824,7 +20829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="143" spans="1:69" s="48" customFormat="1" ht="28.8">
       <c r="A143" s="75" t="s">
         <v>1776</v>
       </c>
@@ -20892,7 +20897,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="144" spans="1:69" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="144" spans="1:69" s="48" customFormat="1">
       <c r="A144" s="121" t="s">
         <v>1786</v>
       </c>
@@ -20988,7 +20993,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="145" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="145" spans="1:35" s="48" customFormat="1" ht="43.2">
       <c r="A145" s="77" t="s">
         <v>1803</v>
       </c>
@@ -21067,7 +21072,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="146" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="146" spans="1:35" s="48" customFormat="1">
       <c r="A146" s="121" t="s">
         <v>1814</v>
       </c>
@@ -21163,7 +21168,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="147" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="147" spans="1:35" s="48" customFormat="1" ht="20.399999999999999">
       <c r="A147" s="77" t="s">
         <v>1830</v>
       </c>
@@ -21222,7 +21227,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="148" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="148" spans="1:35" s="48" customFormat="1">
       <c r="A148" s="75" t="s">
         <v>1837</v>
       </c>
@@ -21291,7 +21296,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="149" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="149" spans="1:35" s="48" customFormat="1">
       <c r="A149" s="75" t="s">
         <v>1850</v>
       </c>
@@ -21360,7 +21365,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="150" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="150" spans="1:35" s="48" customFormat="1">
       <c r="A150" s="106" t="s">
         <v>1860</v>
       </c>
@@ -21437,7 +21442,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="151" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="151" spans="1:35" s="48" customFormat="1" ht="43.2">
       <c r="A151" s="75" t="s">
         <v>1870</v>
       </c>
@@ -21510,7 +21515,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="152" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="152" spans="1:35" s="48" customFormat="1" ht="43.2">
       <c r="A152" s="75" t="s">
         <v>1881</v>
       </c>
@@ -21579,7 +21584,7 @@
       </c>
       <c r="AE152" s="36"/>
     </row>
-    <row r="153" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="153" spans="1:35" s="48" customFormat="1" ht="20.399999999999999">
       <c r="A153" s="105" t="s">
         <v>1892</v>
       </c>
@@ -21645,7 +21650,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="154" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="154" spans="1:35" s="48" customFormat="1" ht="20.399999999999999">
       <c r="A154" s="121" t="s">
         <v>1902</v>
       </c>
@@ -21735,7 +21740,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="155" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="155" spans="1:35" s="48" customFormat="1">
       <c r="A155" s="75" t="s">
         <v>1919</v>
       </c>
@@ -21804,7 +21809,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="156" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="156" spans="1:35" s="48" customFormat="1">
       <c r="A156" s="75" t="s">
         <v>1927</v>
       </c>
@@ -21869,7 +21874,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="157" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="157" spans="1:35" s="48" customFormat="1">
       <c r="A157" s="121" t="s">
         <v>1937</v>
       </c>
@@ -21955,7 +21960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:35" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="158" spans="1:35" s="48" customFormat="1" ht="28.8">
       <c r="A158" s="75" t="s">
         <v>1947</v>
       </c>
@@ -22028,7 +22033,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="159" spans="1:35" s="48" customFormat="1" ht="24.6" customHeight="1">
+    <row r="159" spans="1:35" s="48" customFormat="1" ht="28.8">
       <c r="A159" s="107" t="s">
         <v>1956</v>
       </c>
@@ -22107,7 +22112,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="160" spans="1:35" s="88" customFormat="1" ht="15" customHeight="1">
+    <row r="160" spans="1:35" s="88" customFormat="1">
       <c r="A160" s="176" t="s">
         <v>1965</v>
       </c>
@@ -22173,7 +22178,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="161" spans="1:35" s="88" customFormat="1" ht="22.5" customHeight="1">
+    <row r="161" spans="1:35" s="88" customFormat="1">
       <c r="A161" s="106" t="s">
         <v>1974</v>
       </c>
@@ -22238,7 +22243,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="194" spans="16:16" ht="12.75" customHeight="1">
+    <row r="194" spans="16:16">
       <c r="P194" s="51" t="s">
         <v>1020</v>
       </c>
@@ -22601,11 +22606,11 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="5" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="5" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -22821,7 +22826,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.5">
+    <row r="12" spans="1:9">
       <c r="A12" s="90" t="s">
         <v>1996</v>
       </c>
@@ -23059,7 +23064,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.5">
+    <row r="26" spans="1:5">
       <c r="A26" s="90" t="s">
         <v>2008</v>
       </c>
@@ -23144,7 +23149,7 @@
         <v>45912</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="22.5">
+    <row r="31" spans="1:5">
       <c r="A31" s="90" t="s">
         <v>118</v>
       </c>
@@ -23254,20 +23259,20 @@
       <selection activeCell="F5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="19" customFormat="1" ht="12.75">
+    <row r="1" spans="1:49" s="19" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -23299,7 +23304,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="19" customFormat="1" ht="29.45" customHeight="1">
+    <row r="2" spans="1:49" s="19" customFormat="1" ht="29.4" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>2016</v>
       </c>
@@ -23494,19 +23499,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5">
+    <row r="1" spans="1:2" ht="19.8">
       <c r="A1" s="324" t="s">
         <v>2046</v>
       </c>
       <c r="B1" s="324"/>
     </row>
-    <row r="2" spans="1:2" ht="19.5">
+    <row r="2" spans="1:2" ht="19.8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -23514,7 +23519,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5">
+    <row r="3" spans="1:2" ht="19.8">
       <c r="A3" s="2" t="s">
         <v>2048</v>
       </c>
@@ -23522,7 +23527,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5">
+    <row r="4" spans="1:2" ht="19.8">
       <c r="A4" s="5" t="s">
         <v>2049</v>
       </c>
@@ -23530,7 +23535,7 @@
         <v>45330</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5">
+    <row r="5" spans="1:2" ht="19.8">
       <c r="A5" s="5" t="s">
         <v>2050</v>
       </c>
@@ -23538,7 +23543,7 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5">
+    <row r="6" spans="1:2" ht="19.8">
       <c r="A6" s="5" t="s">
         <v>2051</v>
       </c>
@@ -23546,7 +23551,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5">
+    <row r="7" spans="1:2" ht="19.8">
       <c r="A7" s="7" t="s">
         <v>1919</v>
       </c>
@@ -23554,7 +23559,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5">
+    <row r="8" spans="1:2" ht="19.8">
       <c r="A8" s="7" t="s">
         <v>1259</v>
       </c>
@@ -23562,7 +23567,7 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5">
+    <row r="9" spans="1:2" ht="19.8">
       <c r="A9" s="2" t="s">
         <v>2052</v>
       </c>
@@ -23570,7 +23575,7 @@
         <v>45422</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5">
+    <row r="10" spans="1:2" ht="19.8">
       <c r="A10" s="2" t="s">
         <v>2053</v>
       </c>
@@ -23578,7 +23583,7 @@
         <v>45433</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5">
+    <row r="11" spans="1:2" ht="19.8">
       <c r="A11" s="2" t="s">
         <v>563</v>
       </c>
@@ -23586,7 +23591,7 @@
         <v>45443</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5">
+    <row r="12" spans="1:2" ht="19.8">
       <c r="A12" s="2" t="s">
         <v>2054</v>
       </c>
@@ -23594,7 +23599,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5">
+    <row r="13" spans="1:2" ht="19.8">
       <c r="A13" s="2" t="s">
         <v>1753</v>
       </c>
@@ -23602,7 +23607,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5">
+    <row r="14" spans="1:2" ht="19.8">
       <c r="A14" s="2" t="s">
         <v>2055</v>
       </c>
@@ -23610,7 +23615,7 @@
         <v>45496</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5">
+    <row r="15" spans="1:2" ht="19.8">
       <c r="A15" s="2" t="s">
         <v>2056</v>
       </c>
@@ -23618,7 +23623,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5">
+    <row r="16" spans="1:2" ht="19.8">
       <c r="A16" s="8" t="s">
         <v>2057</v>
       </c>
@@ -23626,7 +23631,7 @@
         <v>45503</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="19.5">
+    <row r="17" spans="1:2" ht="19.8">
       <c r="A17" s="2" t="s">
         <v>2058</v>
       </c>
@@ -23634,7 +23639,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="19.5">
+    <row r="18" spans="1:2" ht="19.8">
       <c r="A18" s="2" t="s">
         <v>2060</v>
       </c>
@@ -23642,7 +23647,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19.5">
+    <row r="19" spans="1:2" ht="19.8">
       <c r="A19" s="2" t="s">
         <v>2062</v>
       </c>
@@ -23650,7 +23655,7 @@
         <v>45517</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="19.5">
+    <row r="20" spans="1:2" ht="19.8">
       <c r="A20" s="2" t="s">
         <v>2063</v>
       </c>
@@ -23658,7 +23663,7 @@
         <v>45537</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="19.5">
+    <row r="21" spans="1:2" ht="19.8">
       <c r="A21" s="2" t="s">
         <v>2064</v>
       </c>
@@ -23666,7 +23671,7 @@
         <v>45539</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="19.5">
+    <row r="22" spans="1:2" ht="19.8">
       <c r="A22" s="2" t="s">
         <v>2065</v>
       </c>
@@ -23674,7 +23679,7 @@
         <v>45545</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="19.5">
+    <row r="23" spans="1:2" ht="19.8">
       <c r="A23" s="2" t="s">
         <v>2066</v>
       </c>
@@ -23682,7 +23687,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="19.5">
+    <row r="24" spans="1:2" ht="19.8">
       <c r="A24" s="2" t="s">
         <v>2067</v>
       </c>
@@ -23690,7 +23695,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="19.5">
+    <row r="25" spans="1:2" ht="19.8">
       <c r="A25" s="5" t="s">
         <v>2068</v>
       </c>
@@ -23698,7 +23703,7 @@
         <v>45575</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="19.5">
+    <row r="26" spans="1:2" ht="19.8">
       <c r="A26" s="4" t="s">
         <v>2069</v>
       </c>

--- a/Directorio_Afiliados_2025.xlsx
+++ b/Directorio_Afiliados_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\Analisis_Estrategico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D76CB4-DA14-423E-8BDF-A516696A419C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF4D10-1006-466D-8DFF-F19D39B98FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="nuevos 2024" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Directorio 2025'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Directorio 2025'!$A$1:$W$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'nuevos 2025 '!$A$1:$E$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'nuevos 2025 '!$A$1:$I$36</definedName>
   </definedNames>
@@ -44,27 +44,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>ALSUM ALSUM</author>
     <author>Asociación Latinoamericana de Suscriptores Marítimos</author>
     <author>Admin</author>
+    <author>ALSUM ALSUM</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{CC47D683-B0A6-422A-B6A4-F7A6334D90A4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Aptos Narrow"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ALSUM ALSUM:
-Debe ser $2,500 para el otro año, se hizo descuento porque sera Patrocinador ORO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="1" shapeId="0" xr:uid="{A714D855-85A3-4E04-A2FC-DD07E636EF83}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{A714D855-85A3-4E04-A2FC-DD07E636EF83}">
       <text>
         <r>
           <rPr>
@@ -78,7 +63,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="1" shapeId="0" xr:uid="{533FC0D4-2FE3-4071-8359-12C833046EA4}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{4A5F9B2B-2D9C-46E8-9CED-4263A7E67795}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Revisar otro año. Valos descuento 2025 y Brasil.
+Real: $3.500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="1" shapeId="0" xr:uid="{7AB8B405-DF0A-4A80-BF36-B383CA2080BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Descuento del 50% este año, proximo 2.000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{533FC0D4-2FE3-4071-8359-12C833046EA4}">
       <text>
         <r>
           <rPr>
@@ -102,22 +126,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="1" shapeId="0" xr:uid="{4A5F9B2B-2D9C-46E8-9CED-4263A7E67795}">
+    <comment ref="D32" authorId="2" shapeId="0" xr:uid="{CC47D683-B0A6-422A-B6A4-F7A6334D90A4}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Revisar otro año. Valos descuento 2025 y Brasil.
-Real: $3.500</t>
+          <t>ALSUM ALSUM:
+Debe ser $2,500 para el otro año, se hizo descuento porque sera Patrocinador ORO</t>
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="1" shapeId="0" xr:uid="{D03F0FCD-46C6-4485-AF3C-82FE173B5249}">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{D03F0FCD-46C6-4485-AF3C-82FE173B5249}">
       <text>
         <r>
           <rPr>
@@ -128,30 +152,6 @@
             <family val="2"/>
           </rPr>
           <t>Descuento 500 usd por ser patrocinador.. Otro año 2.000</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D35" authorId="2" shapeId="0" xr:uid="{7AB8B405-DF0A-4A80-BF36-B383CA2080BE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Descuento del 50% este año, proximo 2.000</t>
         </r>
       </text>
     </comment>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="370">
   <si>
     <t>Empresa</t>
   </si>
@@ -419,9 +419,6 @@
     <t>NACORA</t>
   </si>
   <si>
-    <t>SBS SEGUROS COLOMBIA</t>
-  </si>
-  <si>
     <t>SEGUROS DEL ESTADO</t>
   </si>
   <si>
@@ -609,9 +606,6 @@
     <t>P&amp;I</t>
   </si>
   <si>
-    <t>KEEPER CARGO INSURANCE MEXICO</t>
-  </si>
-  <si>
     <t>EMPRESA</t>
   </si>
   <si>
@@ -1297,9 +1291,6 @@
   </si>
   <si>
     <t>INSURTECH</t>
-  </si>
-  <si>
-    <t>AVLA PERU CIA DE SEGUROS</t>
   </si>
   <si>
     <t>CORREDORES DE SEGUROS Y REASEGUROS</t>
@@ -1615,7 +1606,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1748,9 +1739,6 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1761,6 +1749,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2100,9 +2098,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F129865-BAC1-43A6-8467-41F7E7B3E707}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W161"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2127,79 +2128,79 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="F1" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="B2" s="19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="C2" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="D2" s="49">
         <v>3500</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="B3" s="19" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="C3" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="49">
         <v>2500</v>
       </c>
       <c r="E3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>155</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>9</v>
@@ -2208,81 +2209,81 @@
         <v>2000</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D5" s="49">
         <v>5000</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="D6" s="49">
         <v>1500</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="49">
         <v>2000</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="49">
         <v>2500</v>
@@ -2294,517 +2295,517 @@
         <v>15</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="49">
         <v>5000</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="D10" s="49">
         <v>1000</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="B11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="D11" s="49">
         <v>2000</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>173</v>
       </c>
       <c r="D12" s="49">
         <v>1000</v>
       </c>
       <c r="E12" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>176</v>
-      </c>
       <c r="B13" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="49">
         <v>5000</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D14" s="49">
         <v>2000</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" s="49">
         <v>2500</v>
       </c>
       <c r="E15" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="D16" s="49">
         <v>5000</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D17" s="49">
         <v>2500</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D18" s="49">
         <v>2500</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D19" s="49">
         <v>3500</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>191</v>
       </c>
       <c r="D20" s="49">
         <v>2500</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D21" s="49">
         <v>2500</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D22" s="49">
         <v>1500</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D23" s="49">
         <v>3500</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D24" s="49">
         <v>2000</v>
       </c>
       <c r="E24" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="D25" s="49">
         <v>2000</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>199</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="D26" s="49">
         <v>1500</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D27" s="49">
         <v>2000</v>
       </c>
       <c r="E27" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>205</v>
       </c>
       <c r="D28" s="49">
         <v>2500</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" s="49">
         <v>2500</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="D30" s="49">
         <v>2500</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D31" s="49">
         <v>2500</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" s="49">
         <v>5000</v>
@@ -2816,759 +2817,759 @@
         <v>15</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33" s="49">
         <v>5000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" s="49">
         <v>2000</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" s="49">
         <v>2000</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F35" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+      <c r="C36" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="D36" s="49">
         <v>2000</v>
       </c>
       <c r="E36" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
-        <v>222</v>
-      </c>
       <c r="B37" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D37" s="49">
         <v>5000</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="49">
         <v>2500</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D39" s="49">
         <v>1500</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D40" s="49">
         <v>2000</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D41" s="49">
         <v>2500</v>
       </c>
       <c r="E41" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
-        <v>228</v>
-      </c>
       <c r="B42" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" s="49">
         <v>5000</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>70</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D43" s="49">
         <v>2500</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D44" s="49">
         <v>2500</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" s="49">
         <v>1000</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>26</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" s="49">
         <v>2000</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="49">
         <v>2000</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="49">
         <v>2500</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
-        <v>236</v>
-      </c>
       <c r="B50" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" s="49">
         <v>2000</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" s="49">
         <v>2000</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="49">
         <v>5000</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="49">
         <v>2500</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="49">
         <v>5000</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D55" s="49">
         <v>1000</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="49">
         <v>2000</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" s="49">
         <v>1000</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="49">
         <v>1500</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D59" s="49">
         <v>2500</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D60" s="49">
         <v>2500</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D61" s="49">
         <v>3500</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="49">
         <v>1000</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="49">
         <v>2000</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D64" s="49">
         <v>2000</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="49">
         <v>2000</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D66" s="49">
         <v>2500</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D67" s="49">
         <v>3500</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D68" s="49">
         <v>2500</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>32</v>
@@ -3580,1161 +3581,1161 @@
         <v>33</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G69" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>151</v>
-      </c>
       <c r="C70" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D70" s="49">
         <v>1500</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D71" s="49">
         <v>2000</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D72" s="49">
         <v>1500</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D73" s="49">
         <v>2500</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D74" s="49">
         <v>2500</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D75" s="49">
         <v>2500</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D76" s="49">
         <v>1000</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D77" s="49">
         <v>2500</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>37</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D78" s="49">
         <v>1000</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D79" s="49">
         <v>2500</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>39</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" s="49">
         <v>2000</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>40</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D81" s="49">
         <v>2000</v>
       </c>
       <c r="E81" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F81" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="F81" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="47" t="s">
-        <v>272</v>
-      </c>
       <c r="B82" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D82" s="49">
         <v>1000</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D83" s="49">
         <v>2500</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D84" s="49">
         <v>1500</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D85" s="49">
         <v>1500</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D86" s="49">
         <v>2500</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G86" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="D87" s="49">
         <v>2500</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D88" s="49">
         <v>5000</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D89" s="49">
         <v>2500</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D90" s="49">
         <v>2000</v>
       </c>
       <c r="E90" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>283</v>
       </c>
       <c r="D91" s="49">
         <v>2000</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>42</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D92" s="49">
         <v>1700</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D93" s="49">
         <v>2000</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D94" s="49">
         <v>2500</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D95" s="49">
         <v>5000</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D96" s="49">
         <v>1500</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D97" s="49">
         <v>2500</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D98" s="49">
         <v>2000</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D99" s="49">
         <v>1500</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G99" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D100" s="49">
         <v>2000</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D101" s="49">
         <v>2000</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D102" s="49">
         <v>1500</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="47" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D103" s="49">
         <v>2000</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D104" s="49">
         <v>2500</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D105" s="49">
         <v>1500</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G105" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D106" s="49">
         <v>5000</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D107" s="49">
         <v>3500</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G107" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D108" s="49">
         <v>2500</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G108" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D109" s="49">
         <v>2500</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G109" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D110" s="49">
         <v>1500</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G110" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="47" t="s">
         <v>48</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D111" s="49">
         <v>2500</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G111" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>160</v>
-      </c>
       <c r="C112" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D112" s="49">
         <v>1500</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D113" s="49">
         <v>3500</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G113" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="D114" s="49">
         <v>2000</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G114" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="47" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D115" s="49">
         <v>2500</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G115" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D116" s="49">
         <v>2500</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G116" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D117" s="49">
         <v>1500</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G117" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D118" s="49">
         <v>1500</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G118" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D120" s="49">
         <v>1500</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G120" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D121" s="49">
         <v>2000</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G121" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D122" s="49">
         <v>2000</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G122" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D123" s="49">
         <v>1500</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D124" s="49">
         <v>2500</v>
@@ -4746,58 +4747,58 @@
         <v>15</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D125" s="49">
         <v>2500</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="47" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D126" s="49">
         <v>2500</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>54</v>
@@ -4806,170 +4807,170 @@
         <v>2000</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="47" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D128" s="49">
         <v>2500</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D129" s="49">
         <v>2000</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D130" s="49">
         <v>2500</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D131" s="49">
         <v>1500</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D132" s="49">
         <v>2500</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D133" s="49">
         <v>2500</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D134" s="49">
         <v>1500</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>57</v>
@@ -4978,459 +4979,459 @@
         <v>1500</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="47" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D136" s="49">
         <v>2500</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D137" s="49">
         <v>2500</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D138" s="49">
         <v>2500</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D139" s="49">
         <v>2500</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D140" s="49">
         <v>1500</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="47" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D141" s="49">
         <v>5000</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="47" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D142" s="49">
         <v>1500</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D143" s="49">
         <v>2500</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D144" s="49">
         <v>2000</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D145" s="49">
         <v>5000</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D146" s="49">
         <v>2000</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D147" s="49">
         <v>2000</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G147" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="B148" s="19" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>151</v>
       </c>
       <c r="D148" s="49">
         <v>1500</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="47" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D149" s="49">
         <v>2700</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D150" s="49">
         <v>5000</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D151" s="49">
         <v>2000</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D152" s="49">
         <v>5000</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D153" s="49">
         <v>2500</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F153" s="19" t="s">
         <v>61</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="B154" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C154" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="D154" s="49">
         <v>2000</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D155" s="49">
         <v>2000</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G156" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D157" s="49">
         <v>2500</v>
@@ -5442,93 +5443,100 @@
         <v>15</v>
       </c>
       <c r="G157" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D158" s="49">
         <v>2000</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G158" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D159" s="49">
         <v>2000</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G159" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C160" s="19" t="s">
         <v>362</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C160" s="19" t="s">
-        <v>364</v>
       </c>
       <c r="D160" s="49">
         <v>5000</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="47" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D161" s="49">
         <v>5000</v>
       </c>
       <c r="E161" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W161" xr:uid="{0F129865-BAC1-43A6-8467-41F7E7B3E707}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AVLA PERU"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5538,8 +5546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDEAFE-F3D4-418F-81E2-4878E697C4EF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,21 +5575,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>70</v>
+      <c r="A2" s="59" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="41">
-        <v>45915</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
       <c r="G2" t="s">
         <v>71</v>
       </c>
@@ -5593,20 +5597,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>56</v>
+      <c r="A3" s="59" t="s">
+        <v>190</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="D3" s="42">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="41">
-        <v>45848</v>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="40">
+        <v>45746</v>
       </c>
       <c r="G3" t="s">
         <v>72</v>
@@ -5619,21 +5623,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>55</v>
+      <c r="A4" s="59" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="41">
-        <v>45915</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
       <c r="H4" s="46">
         <f>SUM(H2:H3)</f>
         <v>34</v>
@@ -5644,469 +5644,479 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
-        <v>73</v>
+      <c r="A5" s="59" t="s">
+        <v>193</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="42">
+        <v>151</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="39">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="40">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="42">
         <v>2000</v>
       </c>
-      <c r="E5" s="41">
-        <v>45931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E6" s="41">
-        <v>45858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="E9" s="41">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="39">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="40">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="41">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="41">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="42">
         <v>2500</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E17" s="41">
         <v>45874</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E8" s="41">
-        <v>45889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="39">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="40">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="42">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="41">
-        <v>45853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E11" s="41">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="41">
-        <v>45915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="42">
-        <v>2500</v>
-      </c>
-      <c r="E13" s="41">
-        <v>45971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="39">
-        <v>2500</v>
-      </c>
-      <c r="E14" s="40">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="39">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="40">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="42">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="41">
-        <v>45901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="40">
-        <v>45746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="42">
-        <v>1700</v>
-      </c>
-      <c r="E18" s="41">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="39">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="40">
-        <v>45762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
-        <v>76</v>
-      </c>
       <c r="B20" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>147</v>
       </c>
       <c r="D20" s="39">
         <v>2500</v>
       </c>
       <c r="E20" s="40">
-        <v>45703</v>
+        <v>45672</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>208</v>
+      <c r="A21" s="59" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>368</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>149</v>
+        <v>302</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="65">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="66">
+        <v>45931</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
-        <v>42</v>
+      <c r="A22" s="59" t="s">
+        <v>312</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="40"/>
+        <v>237</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="41">
+        <v>45889</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
-        <v>77</v>
+      <c r="A23" s="59" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="41"/>
+        <v>146</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="41">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="42">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="41">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="42">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="41">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="42">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="41">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="59" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E28" s="41">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="39">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="40">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="60" t="s">
+      <c r="B31" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="42">
+        <v>2500</v>
+      </c>
+      <c r="E31" s="41">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="42">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="41">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
-        <v>63</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="41"/>
+      <c r="C33" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
-        <v>234</v>
+      <c r="A34" s="59" t="s">
+        <v>63</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>149</v>
+        <v>364</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>147</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
-        <v>372</v>
+      <c r="A35" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="39">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="40">
+        <v>45778</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36" s="43">
@@ -6155,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -6173,38 +6183,38 @@
         <v>5</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:49" s="19" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="15"/>
       <c r="G2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>8</v>
@@ -6251,31 +6261,31 @@
     </row>
     <row r="3" spans="1:49" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="G3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>16</v>
@@ -6283,31 +6293,31 @@
     </row>
     <row r="4" spans="1:49" s="20" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>11</v>
@@ -6315,7 +6325,7 @@
     </row>
     <row r="5" spans="1:49" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>12</v>
@@ -6327,10 +6337,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>106</v>
       </c>
       <c r="G5" s="51"/>
       <c r="H5" s="34"/>
@@ -6339,21 +6349,21 @@
       <c r="K5" s="29"/>
       <c r="L5" s="31"/>
       <c r="M5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="33" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -6384,22 +6394,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A1" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="59"/>
+      <c r="A1" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3">
         <v>45324</v>
@@ -6407,7 +6417,7 @@
     </row>
     <row r="4" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6">
         <v>45330</v>
@@ -6415,7 +6425,7 @@
     </row>
     <row r="5" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="6">
         <v>45339</v>
@@ -6423,7 +6433,7 @@
     </row>
     <row r="6" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="6">
         <v>45342</v>
@@ -6447,7 +6457,7 @@
     </row>
     <row r="9" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3">
         <v>45422</v>
@@ -6455,7 +6465,7 @@
     </row>
     <row r="10" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3">
         <v>45433</v>
@@ -6471,7 +6481,7 @@
     </row>
     <row r="12" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="3">
         <v>45455</v>
@@ -6487,7 +6497,7 @@
     </row>
     <row r="14" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3">
         <v>45496</v>
@@ -6495,7 +6505,7 @@
     </row>
     <row r="15" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3">
         <v>45498</v>
@@ -6503,7 +6513,7 @@
     </row>
     <row r="16" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3">
         <v>45503</v>
@@ -6511,23 +6521,23 @@
     </row>
     <row r="17" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3">
         <v>45517</v>
@@ -6535,7 +6545,7 @@
     </row>
     <row r="20" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3">
         <v>45537</v>
@@ -6543,7 +6553,7 @@
     </row>
     <row r="21" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3">
         <v>45539</v>
@@ -6551,7 +6561,7 @@
     </row>
     <row r="22" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3">
         <v>45545</v>
@@ -6559,7 +6569,7 @@
     </row>
     <row r="23" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3">
         <v>45553</v>
@@ -6567,7 +6577,7 @@
     </row>
     <row r="24" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3">
         <v>45567</v>
@@ -6575,7 +6585,7 @@
     </row>
     <row r="25" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A25" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="6">
         <v>45575</v>
@@ -6583,10 +6593,10 @@
     </row>
     <row r="26" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Directorio_Afiliados_2025.xlsx
+++ b/Directorio_Afiliados_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\Analisis_Estrategico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF4D10-1006-466D-8DFF-F19D39B98FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC10A935-F6B6-4664-A6A1-B014998EC4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio 2025" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="362">
   <si>
     <t>Empresa</t>
   </si>
@@ -717,9 +717,6 @@
     <t>TECNOLOGÍA</t>
   </si>
   <si>
-    <t>PROVEEDORES</t>
-  </si>
-  <si>
     <t>AON BENFIELD</t>
   </si>
   <si>
@@ -762,12 +759,6 @@
     <t>ATLANTIC AMERICAS REINSURANCE</t>
   </si>
   <si>
-    <t>ESPAÑA, COLOMBIA</t>
-  </si>
-  <si>
-    <t>ESPAÑA, LONDRES, MIAMI, PANAMÁ, CHILE</t>
-  </si>
-  <si>
     <t>AVLA PERU</t>
   </si>
   <si>
@@ -840,9 +831,6 @@
     <t>CAVE LIQUIDADORES</t>
   </si>
   <si>
-    <t>AJUSTADORES / LIQUIDADORES</t>
-  </si>
-  <si>
     <t>CHARTERAMA BV</t>
   </si>
   <si>
@@ -855,9 +843,6 @@
     <t>MGA - CHARTERERS LIABILITY INSURANCE</t>
   </si>
   <si>
-    <t>MGA / AGENCIA DE SUSCRIPCIÓN</t>
-  </si>
-  <si>
     <t>CHUBB</t>
   </si>
   <si>
@@ -990,24 +975,12 @@
     <t>BROKERS DE SEGUROS</t>
   </si>
   <si>
-    <t>INTERMEDIARIOS DE SEGURO</t>
-  </si>
-  <si>
-    <t>CORREDOR DE REASEGUROS</t>
-  </si>
-  <si>
     <t>AJUSTADORES Y PERITOS MARÍTIMOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> AJUSTADORES Y PERITOS MARÍTIMOS</t>
-  </si>
-  <si>
     <t>AGENTE DE SEGUROS</t>
   </si>
   <si>
-    <t>INTERMEDIARIO DE SEGUROS</t>
-  </si>
-  <si>
     <t>KING SALOMON</t>
   </si>
   <si>
@@ -1086,9 +1059,6 @@
     <t>MOMENTUM</t>
   </si>
   <si>
-    <t>MSIG SPECIALTY MARINE NV</t>
-  </si>
-  <si>
     <t>BÉLGICA</t>
   </si>
   <si>
@@ -1203,9 +1173,6 @@
     <t>SEGUROS MAGNE</t>
   </si>
   <si>
-    <t>CORREDORES DE DIRECTO?</t>
-  </si>
-  <si>
     <t>SEGUROS ATLAS</t>
   </si>
   <si>
@@ -1257,12 +1224,6 @@
     <t>UMBRELLA RE</t>
   </si>
   <si>
-    <t>ESTADOS UNIDOS Y ECUADOR</t>
-  </si>
-  <si>
-    <t>REPÚBLICA DOMINICANA, ECUADOR, CARIBE</t>
-  </si>
-  <si>
     <t>LIMITED LIABILITY COMPANY</t>
   </si>
   <si>
@@ -1281,9 +1242,6 @@
     <t>WILLIS TOWERS WATSON</t>
   </si>
   <si>
-    <t>BRASIL - COLOMBIA</t>
-  </si>
-  <si>
     <t>ARGENTINA, BRASIL, CHILE, PERU, COLOMBIA, VENEZUELA, MEXICO, PANAMA, HONDURAS, GUATEMALA, EL SALVADOR, GUATEMALA E COSTA RICA.</t>
   </si>
   <si>
@@ -1306,6 +1264,24 @@
   </si>
   <si>
     <t>KEEPER CARGO INSURANCE COLOMBIA</t>
+  </si>
+  <si>
+    <t>ESPAÑA, ESTADOS UNIDOS, PANAMÁ, CHILE, COLOMBIA</t>
+  </si>
+  <si>
+    <t>CORREDOR DE DIRECTO</t>
+  </si>
+  <si>
+    <t>MSIG SPECIALTY MARINE NV ANTES ( MS AMLIN INSURANCE SE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASEGURADORA </t>
+  </si>
+  <si>
+    <t>REPÚBLICA DOMINICANA, ECUADOR, CARIBE, ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRASIL </t>
   </si>
 </sst>
 </file>
@@ -1751,14 +1727,14 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2098,11 +2074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F129865-BAC1-43A6-8467-41F7E7B3E707}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W161"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2149,7 +2124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
         <v>143</v>
       </c>
@@ -2172,7 +2147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>148</v>
       </c>
@@ -2195,7 +2170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>152</v>
       </c>
@@ -2218,7 +2193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="47" t="s">
         <v>10</v>
       </c>
@@ -2238,7 +2213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>157</v>
       </c>
@@ -2258,7 +2233,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2253,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>159</v>
       </c>
@@ -2298,7 +2273,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>161</v>
       </c>
@@ -2318,7 +2293,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>162</v>
       </c>
@@ -2341,7 +2316,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>167</v>
       </c>
@@ -2358,13 +2333,13 @@
         <v>169</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>124</v>
       </c>
@@ -2381,15 +2356,15 @@
         <v>172</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
         <v>173</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
-        <v>174</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>154</v>
@@ -2398,16 +2373,16 @@
         <v>5000</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>18</v>
       </c>
@@ -2415,7 +2390,7 @@
         <v>170</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="49">
         <v>2000</v>
@@ -2430,21 +2405,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="D15" s="49">
         <v>2500</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>151</v>
@@ -2453,35 +2428,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>154</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="49">
         <v>5000</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="D17" s="49">
         <v>2500</v>
@@ -2496,9 +2471,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>163</v>
@@ -2519,15 +2494,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="49">
         <v>3500</v>
@@ -2542,24 +2517,24 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="D20" s="49">
         <v>2500</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>147</v>
@@ -2567,7 +2542,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>153</v>
@@ -2588,21 +2563,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D22" s="49">
         <v>1500</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>155</v>
@@ -2611,7 +2586,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>21</v>
       </c>
@@ -2631,55 +2606,55 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D24" s="49">
         <v>2000</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>149</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D25" s="49">
         <v>2000</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" s="49">
         <v>1500</v>
@@ -2694,9 +2669,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>163</v>
@@ -2705,39 +2680,39 @@
         <v>2000</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D28" s="49">
         <v>2500</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>133</v>
       </c>
@@ -2757,35 +2732,35 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D30" s="49">
         <v>2500</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D31" s="49">
         <v>2500</v>
@@ -2800,9 +2775,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>154</v>
@@ -2820,9 +2795,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>154</v>
@@ -2831,18 +2806,18 @@
         <v>5000</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>170</v>
@@ -2857,13 +2832,13 @@
         <v>146</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>23</v>
       </c>
@@ -2880,38 +2855,38 @@
         <v>146</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D36" s="49">
         <v>2000</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="G36" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>154</v>
@@ -2929,32 +2904,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D38" s="49">
         <v>2500</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D39" s="49">
         <v>1500</v>
@@ -2969,9 +2944,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>153</v>
@@ -2989,32 +2964,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>158</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="49">
         <v>2500</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>170</v>
@@ -3023,16 +2998,16 @@
         <v>5000</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G42" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>70</v>
       </c>
@@ -3043,16 +3018,16 @@
         <v>2500</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>25</v>
       </c>
@@ -3063,7 +3038,7 @@
         <v>2500</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>151</v>
@@ -3072,18 +3047,18 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D45" s="49">
         <v>1000</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>166</v>
@@ -3092,7 +3067,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>26</v>
       </c>
@@ -3112,7 +3087,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>27</v>
       </c>
@@ -3123,18 +3098,18 @@
         <v>2000</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>158</v>
@@ -3152,29 +3127,29 @@
         <v>156</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>170</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" s="49">
         <v>2000</v>
@@ -3189,9 +3164,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>163</v>
@@ -3209,9 +3184,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>154</v>
@@ -3220,7 +3195,7 @@
         <v>5000</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>155</v>
@@ -3229,9 +3204,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>160</v>
@@ -3249,9 +3224,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>154</v>
@@ -3260,21 +3235,21 @@
         <v>5000</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D55" s="49">
         <v>1000</v>
@@ -3289,7 +3264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>130</v>
       </c>
@@ -3312,18 +3287,18 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D57" s="49">
         <v>1000</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>166</v>
@@ -3332,9 +3307,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>170</v>
@@ -3352,7 +3327,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>28</v>
       </c>
@@ -3363,16 +3338,16 @@
         <v>2500</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>29</v>
       </c>
@@ -3395,7 +3370,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>30</v>
       </c>
@@ -3415,15 +3390,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="49">
         <v>1000</v>
@@ -3438,12 +3413,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D63" s="49">
         <v>2000</v>
@@ -3458,50 +3433,50 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D64" s="49">
         <v>2000</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D65" s="49">
         <v>2000</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>118</v>
       </c>
@@ -3521,9 +3496,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>144</v>
@@ -3544,9 +3519,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>170</v>
@@ -3564,12 +3539,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>32</v>
@@ -3581,38 +3556,38 @@
         <v>33</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>149</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D70" s="49">
         <v>1500</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>153</v>
@@ -3630,12 +3605,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D72" s="49">
         <v>1500</v>
@@ -3650,32 +3625,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D73" s="49">
         <v>2500</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D74" s="49">
         <v>2500</v>
@@ -3690,15 +3665,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D75" s="49">
         <v>2500</v>
@@ -3713,21 +3688,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>36</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D76" s="49">
         <v>1000</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>166</v>
@@ -3736,30 +3711,30 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="47" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D77" s="49">
         <v>2500</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>37</v>
       </c>
@@ -3779,27 +3754,27 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D79" s="49">
         <v>2500</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>39</v>
       </c>
@@ -3810,16 +3785,16 @@
         <v>2000</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="G80" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>40</v>
       </c>
@@ -3830,30 +3805,30 @@
         <v>2000</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G81" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D82" s="49">
         <v>1000</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F82" s="19" t="s">
         <v>166</v>
@@ -3862,9 +3837,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>163</v>
@@ -3882,9 +3857,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>163</v>
@@ -3902,12 +3877,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="47" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D85" s="49">
         <v>1500</v>
@@ -3922,15 +3897,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="47" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D86" s="49">
         <v>2500</v>
@@ -3945,9 +3920,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>158</v>
@@ -3965,9 +3940,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>154</v>
@@ -3985,7 +3960,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>41</v>
       </c>
@@ -3999,53 +3974,53 @@
         <v>2500</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G89" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D90" s="49">
         <v>2000</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G90" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="47" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D91" s="49">
         <v>2000</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>151</v>
@@ -4054,7 +4029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>42</v>
       </c>
@@ -4074,21 +4049,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D93" s="49">
         <v>2000</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>166</v>
@@ -4097,41 +4072,41 @@
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="49">
         <v>2500</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G94" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D95" s="49">
         <v>5000</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>155</v>
@@ -4140,21 +4115,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D96" s="49">
         <v>1500</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>146</v>
@@ -4163,21 +4138,21 @@
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
         <v>114</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D97" s="49">
         <v>2500</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>166</v>
@@ -4186,7 +4161,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>46</v>
       </c>
@@ -4206,9 +4181,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="47" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>163</v>
@@ -4217,7 +4192,7 @@
         <v>1500</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>146</v>
@@ -4226,27 +4201,27 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" s="49">
         <v>2000</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G100" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>47</v>
       </c>
@@ -4260,24 +4235,24 @@
         <v>2000</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D102" s="49">
         <v>1500</v>
@@ -4292,12 +4267,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="47" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D103" s="49">
         <v>2000</v>
@@ -4312,9 +4287,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="47" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>158</v>
@@ -4323,38 +4298,38 @@
         <v>2500</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G104" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D105" s="49">
         <v>1500</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>154</v>
@@ -4363,21 +4338,21 @@
         <v>5000</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="47" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D107" s="49">
         <v>3500</v>
@@ -4392,7 +4367,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="47" t="s">
         <v>129</v>
       </c>
@@ -4412,50 +4387,50 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>73</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D109" s="49">
         <v>2500</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G109" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D110" s="49">
         <v>1500</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G110" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="47" t="s">
         <v>48</v>
       </c>
@@ -4469,15 +4444,15 @@
         <v>155</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G111" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="47" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>158</v>
@@ -4498,9 +4473,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="47" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>153</v>
@@ -4518,9 +4493,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>158</v>
@@ -4538,9 +4513,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="47" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>144</v>
@@ -4549,18 +4524,18 @@
         <v>2500</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G115" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="47" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B116" s="19" t="s">
         <v>170</v>
@@ -4569,16 +4544,16 @@
         <v>2500</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G116" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
         <v>128</v>
       </c>
@@ -4589,16 +4564,16 @@
         <v>1500</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G117" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="47" t="s">
         <v>49</v>
       </c>
@@ -4606,42 +4581,42 @@
         <v>149</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D118" s="49">
         <v>1500</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G118" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G119" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="47" t="s">
         <v>50</v>
       </c>
@@ -4649,45 +4624,45 @@
         <v>158</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D120" s="49">
         <v>1500</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G120" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="47" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>144</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D121" s="49">
         <v>2000</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G121" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="47" t="s">
         <v>51</v>
       </c>
@@ -4710,9 +4685,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="47" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>163</v>
@@ -4724,18 +4699,18 @@
         <v>155</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G123" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="47" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D124" s="49">
         <v>2500</v>
@@ -4750,55 +4725,55 @@
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D125" s="49">
         <v>2500</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="47" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D126" s="49">
         <v>2500</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G126" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>54</v>
@@ -4807,7 +4782,7 @@
         <v>2000</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F127" s="19" t="s">
         <v>146</v>
@@ -4816,9 +4791,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="47" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>144</v>
@@ -4827,39 +4802,39 @@
         <v>2500</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="G128" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="47" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D129" s="49">
         <v>2000</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G129" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
         <v>55</v>
       </c>
@@ -4879,12 +4854,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>56</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D131" s="49">
         <v>1500</v>
@@ -4899,15 +4874,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D132" s="49">
         <v>2500</v>
@@ -4922,12 +4897,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="47" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D133" s="49">
         <v>2500</v>
@@ -4942,15 +4917,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D134" s="49">
         <v>1500</v>
@@ -4965,12 +4940,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C135" s="19" t="s">
         <v>57</v>
@@ -4988,12 +4963,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="47" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D136" s="49">
         <v>2500</v>
@@ -5008,9 +4983,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="47" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>170</v>
@@ -5019,24 +4994,24 @@
         <v>2500</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="47" t="s">
         <v>58</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D138" s="49">
         <v>2500</v>
@@ -5051,9 +5026,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="47" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>144</v>
@@ -5065,7 +5040,7 @@
         <v>2500</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F139" s="19" t="s">
         <v>155</v>
@@ -5074,7 +5049,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="47" t="s">
         <v>59</v>
       </c>
@@ -5094,9 +5069,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="47" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>154</v>
@@ -5105,18 +5080,18 @@
         <v>5000</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G141" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="47" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>160</v>
@@ -5134,9 +5109,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="47" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>170</v>
@@ -5154,32 +5129,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="47" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D144" s="49">
         <v>2000</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>154</v>
@@ -5197,15 +5172,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="47" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D146" s="49">
         <v>2000</v>
@@ -5220,7 +5195,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="47" t="s">
         <v>117</v>
       </c>
@@ -5231,18 +5206,18 @@
         <v>2000</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="47" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>149</v>
@@ -5251,21 +5226,21 @@
         <v>1500</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="G148" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="47" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D149" s="49">
         <v>2700</v>
@@ -5280,9 +5255,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="47" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>154</v>
@@ -5291,18 +5266,18 @@
         <v>5000</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G150" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="47" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>144</v>
@@ -5311,18 +5286,18 @@
         <v>2000</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G151" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="47" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>154</v>
@@ -5331,16 +5306,16 @@
         <v>5000</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G152" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>60</v>
       </c>
@@ -5348,7 +5323,7 @@
         <v>149</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D153" s="49">
         <v>2500</v>
@@ -5363,30 +5338,30 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="47" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>353</v>
+        <v>158</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D154" s="49">
         <v>2000</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G154" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="47" t="s">
         <v>62</v>
       </c>
@@ -5406,32 +5381,35 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>163</v>
       </c>
+      <c r="D156" s="49">
+        <v>1000</v>
+      </c>
       <c r="E156" s="19" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="G156" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="D157" s="49">
         <v>2500</v>
@@ -5446,9 +5424,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>158</v>
@@ -5466,9 +5444,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="47" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>170</v>
@@ -5486,32 +5464,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="47" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>361</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D160" s="49">
         <v>5000</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G160" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="47" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>154</v>
@@ -5530,13 +5508,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W161" xr:uid="{0F129865-BAC1-43A6-8467-41F7E7B3E707}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="AVLA PERU"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5546,7 +5517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDEAFE-F3D4-418F-81E2-4878E697C4EF}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -5598,7 +5569,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B3" s="57" t="s">
         <v>155</v>
@@ -5645,7 +5616,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>151</v>
@@ -5675,16 +5646,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
@@ -5704,7 +5675,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="58" t="s">
         <v>147</v>
@@ -5718,7 +5689,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B10" s="57" t="s">
         <v>166</v>
@@ -5751,7 +5722,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>147</v>
@@ -5761,10 +5732,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>147</v>
@@ -5811,7 +5782,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>147</v>
@@ -5824,7 +5795,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>147</v>
@@ -5838,10 +5809,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>147</v>
@@ -5884,24 +5855,24 @@
         <v>73</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C21" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="65">
+      <c r="D21" s="64">
         <v>2000</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="65">
         <v>45931</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C22" s="58" t="s">
         <v>156</v>
@@ -5962,7 +5933,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>155</v>
@@ -5996,7 +5967,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>155</v>
@@ -6030,7 +6001,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B30" s="57" t="s">
         <v>146</v>
@@ -6043,10 +6014,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>147</v>
@@ -6060,7 +6031,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="59" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>155</v>
@@ -6080,7 +6051,7 @@
         <v>60</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>147</v>
@@ -6093,7 +6064,7 @@
         <v>63</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>147</v>
@@ -6394,10 +6365,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" ht="19.8" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">

--- a/Directorio_Afiliados_2025.xlsx
+++ b/Directorio_Afiliados_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Mauricio\Desktop\Analisis_Estrategico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC10A935-F6B6-4664-A6A1-B014998EC4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883C4D8-85D5-4D2E-AF8C-948F7F5ADEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4FC2C70F-FC4A-4210-8DA5-2DC061F51367}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio 2025" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Directorio 2025'!$A$1:$W$161</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'nuevos 2025 '!$A$1:$E$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'nuevos 2025 '!$A$1:$I$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'nuevos 2025 '!$A$1:$E$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'nuevos 2025 '!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +45,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asociación Latinoamericana de Suscriptores Marítimos</author>
-    <author>Admin</author>
     <author>ALSUM ALSUM</author>
   </authors>
   <commentList>
@@ -78,31 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="1" shapeId="0" xr:uid="{7AB8B405-DF0A-4A80-BF36-B383CA2080BE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Descuento del 50% este año, proximo 2.000</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{533FC0D4-2FE3-4071-8359-12C833046EA4}">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{533FC0D4-2FE3-4071-8359-12C833046EA4}">
       <text>
         <r>
           <rPr>
@@ -126,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="2" shapeId="0" xr:uid="{CC47D683-B0A6-422A-B6A4-F7A6334D90A4}">
+    <comment ref="D31" authorId="1" shapeId="0" xr:uid="{CC47D683-B0A6-422A-B6A4-F7A6334D90A4}">
       <text>
         <r>
           <rPr>
@@ -141,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{D03F0FCD-46C6-4485-AF3C-82FE173B5249}">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{D03F0FCD-46C6-4485-AF3C-82FE173B5249}">
       <text>
         <r>
           <rPr>
@@ -194,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="361">
   <si>
     <t>Empresa</t>
   </si>
@@ -1261,9 +1236,6 @@
   </si>
   <si>
     <t>CORREDORES DE SEGUROS</t>
-  </si>
-  <si>
-    <t>KEEPER CARGO INSURANCE COLOMBIA</t>
   </si>
   <si>
     <t>ESPAÑA, ESTADOS UNIDOS, PANAMÁ, CHILE, COLOMBIA</t>
@@ -2076,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F129865-BAC1-43A6-8467-41F7E7B3E707}">
   <dimension ref="A1:W161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:G161"/>
     </sheetView>
   </sheetViews>
@@ -2525,7 +2497,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D20" s="49">
         <v>2500</v>
@@ -2981,7 +2953,7 @@
         <v>219</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>147</v>
@@ -3144,7 +3116,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>229</v>
       </c>
@@ -4309,7 +4281,7 @@
     </row>
     <row r="105" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>287</v>
@@ -4321,7 +4293,7 @@
         <v>288</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>156</v>
@@ -4739,7 +4711,7 @@
         <v>220</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>147</v>
@@ -4805,7 +4777,7 @@
         <v>220</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G128" s="19" t="s">
         <v>147</v>
@@ -4997,7 +4969,7 @@
         <v>220</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>147</v>
@@ -5346,7 +5318,7 @@
         <v>158</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D154" s="49">
         <v>2000</v>
@@ -5469,7 +5441,7 @@
         <v>347</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>348</v>
@@ -5515,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDEAFE-F3D4-418F-81E2-4878E697C4EF}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5809,97 +5781,101 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>147</v>
       </c>
       <c r="D18" s="42"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="40"/>
+        <v>146</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="39">
+        <v>2500</v>
+      </c>
+      <c r="E19" s="40">
+        <v>45672</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="59" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="C20" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="39">
-        <v>2500</v>
-      </c>
-      <c r="E20" s="40">
-        <v>45672</v>
+      <c r="D20" s="64">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="65">
+        <v>45931</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="59" t="s">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="64">
+        <v>156</v>
+      </c>
+      <c r="D21" s="42">
         <v>2000</v>
       </c>
-      <c r="E21" s="65">
-        <v>45931</v>
+      <c r="E21" s="41">
+        <v>45889</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="59" t="s">
-        <v>302</v>
+        <v>51</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="41">
-        <v>45889</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+        <v>155</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="41">
+        <v>45915</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="57" t="s">
         <v>155</v>
@@ -5908,15 +5884,15 @@
         <v>156</v>
       </c>
       <c r="D24" s="42">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="41">
-        <v>45915</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="59" t="s">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="B25" s="57" t="s">
         <v>155</v>
@@ -5928,29 +5904,29 @@
         <v>2500</v>
       </c>
       <c r="E25" s="41">
-        <v>45848</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="60" t="s">
         <v>156</v>
       </c>
       <c r="D26" s="42">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="E26" s="41">
-        <v>45971</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="59" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>155</v>
@@ -5959,146 +5935,129 @@
         <v>156</v>
       </c>
       <c r="D27" s="42">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="41">
-        <v>45884</v>
+        <v>45858</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
-        <v>322</v>
+        <v>58</v>
       </c>
       <c r="B28" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="42">
-        <v>1500</v>
-      </c>
-      <c r="E28" s="41">
-        <v>45858</v>
+      <c r="C28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="39">
+        <v>2500</v>
+      </c>
+      <c r="E28" s="40">
+        <v>45778</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
-        <v>58</v>
+        <v>333</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="39">
-        <v>2500</v>
-      </c>
-      <c r="E29" s="40">
-        <v>45778</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="59" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="42">
+        <v>2500</v>
+      </c>
+      <c r="E30" s="41">
+        <v>45901</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>147</v>
+        <v>155</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>156</v>
       </c>
       <c r="D31" s="42">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E31" s="41">
-        <v>45901</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="59" t="s">
-        <v>336</v>
+        <v>60</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="42">
-        <v>2000</v>
-      </c>
-      <c r="E32" s="41">
-        <v>45915</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
-        <v>63</v>
+      <c r="A34" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="41"/>
+        <v>15</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="39">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="40">
+        <v>45778</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="39">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="40">
-        <v>45778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="43">
-        <f>SUM(D2:D35)</f>
+      <c r="D35" s="43">
+        <f>SUM(D2:D34)</f>
         <v>38200</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36" xr:uid="{E4CDEAFE-F3D4-418F-81E2-4878E697C4EF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E36">
-      <sortCondition ref="A1:A36"/>
+  <autoFilter ref="A1:E35" xr:uid="{E4CDEAFE-F3D4-418F-81E2-4878E697C4EF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E35">
+      <sortCondition ref="A1:A35"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
